--- a/medicine/Mort/Décès_en_1316/Décès_en_1316.xlsx
+++ b/medicine/Mort/Décès_en_1316/Décès_en_1316.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1316</t>
+          <t>Décès_en_1316</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
 1er octobre : Jean de Garlande, évêque de Chartres.
 19 novembre : Jean Ier de France le Posthume, roi de France et de Navarre.
 décembre : Philippe de Marigny, évêque de Cambrai puis archevêque de Sens.
-16 décembre : Oldjaïtou, il-qan d’Iran[1].
+16 décembre : Oldjaïtou, il-qan d’Iran.
 22 décembre : Gilles de Rome, théologien et philosophe italien, surnommé Docteur très fondé (doctor fundatissimus) et Prince des théologiens (theologorum Princeps.
 Pietro d'Abano, médecin, philosophe et astrologue italien.
 Michel Cantacuzène, premier epitropos (gouverneur ou procurateur) de la province byzantine de la Morée.
